--- a/Dataset working directory_reg/POLICY regional.xlsx
+++ b/Dataset working directory_reg/POLICY regional.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="VALUES" sheetId="1" state="visible" r:id="rId2"/>
@@ -217,16 +217,16 @@
     <t xml:space="preserve">6/14</t>
   </si>
   <si>
+    <t xml:space="preserve">3/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/14</t>
+  </si>
+  <si>
     <t xml:space="preserve">10/14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/14</t>
   </si>
   <si>
     <t xml:space="preserve">7/14</t>
@@ -676,8 +676,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,25 +937,25 @@
         <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>67</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>64</v>
       </c>
       <c r="H7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="J7" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>64</v>
@@ -1590,13 +1590,13 @@
         <v>162</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>163</v>
@@ -1605,10 +1605,10 @@
         <v>164</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>165</v>
@@ -1617,7 +1617,7 @@
         <v>162</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>166</v>

--- a/Dataset working directory_reg/POLICY regional.xlsx
+++ b/Dataset working directory_reg/POLICY regional.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="VALUES" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="181">
   <si>
     <t xml:space="preserve">region</t>
   </si>
@@ -551,9 +551,6 @@
   </si>
   <si>
     <t xml:space="preserve">Polynesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/3</t>
   </si>
   <si>
     <t xml:space="preserve">0/3</t>
@@ -671,13 +668,13 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,40 +1789,40 @@
         <v>176</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="D29" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="G29" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="I29" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="K29" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="L29" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="M29" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset working directory_reg/POLICY regional.xlsx
+++ b/Dataset working directory_reg/POLICY regional.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="VALUES" sheetId="1" state="visible" r:id="rId2"/>
@@ -553,13 +553,13 @@
     <t xml:space="preserve">Polynesia</t>
   </si>
   <si>
+    <t xml:space="preserve">2/3</t>
+  </si>
+  <si>
     <t xml:space="preserve">0/3</t>
   </si>
   <si>
     <t xml:space="preserve">1/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/3</t>
   </si>
   <si>
     <t xml:space="preserve">3/3</t>
@@ -673,8 +673,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1788,38 +1788,38 @@
       <c r="A29" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>99</v>
+      <c r="B29" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="H29" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="I29" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="J29" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="F29" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="G29" s="0" t="s">
+      <c r="K29" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>178</v>
-      </c>
       <c r="L29" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>180</v>
